--- a/Docs/Current Draw.xlsx
+++ b/Docs/Current Draw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Submarine-project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8320E601-2077-427F-BBC7-F8D57684206F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6DF2FC-7788-4307-96F7-C6212BC107FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{2152CD6C-B2BD-4AAA-8F18-41B4BA202E06}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2152CD6C-B2BD-4AAA-8F18-41B4BA202E06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>IDLE</t>
   </si>
@@ -70,6 +70,24 @@
   </si>
   <si>
     <t>Drive Motor stalled 310 pulse</t>
+  </si>
+  <si>
+    <t>Video Transmitter @12V</t>
+  </si>
+  <si>
+    <t>25mW</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>200mW</t>
+  </si>
+  <si>
+    <t>600mW</t>
   </si>
 </sst>
 </file>
@@ -422,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400D3D0A-DF97-47C9-9A3E-0BAD2CFC280D}">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,23 +453,32 @@
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3">
         <v>300</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -461,8 +488,14 @@
       <c r="D4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -472,16 +505,28 @@
       <c r="D5">
         <v>1500</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6">
         <v>400</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -492,7 +537,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -500,7 +545,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -511,7 +556,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -519,7 +564,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -527,7 +572,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -535,7 +580,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>12</v>
       </c>
